--- a/data/Семинары по общей экологии.xlsx
+++ b/data/Семинары по общей экологии.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="255">
   <si>
     <t>Family</t>
   </si>
@@ -84,157 +84,157 @@
     <t>st076849</t>
   </si>
   <si>
+    <t>Альдербаева</t>
+  </si>
+  <si>
+    <t>Анель</t>
+  </si>
+  <si>
+    <t>st081183</t>
+  </si>
+  <si>
+    <t>Аникина</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>st083455</t>
+  </si>
+  <si>
+    <t>Ахромов</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t>st078729</t>
+  </si>
+  <si>
+    <t>Бабаковская</t>
+  </si>
+  <si>
+    <t>Алёна</t>
+  </si>
+  <si>
+    <t>st078018</t>
+  </si>
+  <si>
+    <t>Бакулевский</t>
+  </si>
+  <si>
+    <t>Борис</t>
+  </si>
+  <si>
+    <t>st076290</t>
+  </si>
+  <si>
+    <t>Бариев</t>
+  </si>
+  <si>
+    <t>Тимур</t>
+  </si>
+  <si>
+    <t>st079168</t>
+  </si>
+  <si>
+    <t>Батаева</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>st076236</t>
+  </si>
+  <si>
+    <t>Батлуцкая</t>
+  </si>
+  <si>
+    <t>Микаэла</t>
+  </si>
+  <si>
+    <t>st092163</t>
+  </si>
+  <si>
+    <t>Белоконь</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>st078600</t>
+  </si>
+  <si>
+    <t>Бергалиев</t>
+  </si>
+  <si>
+    <t>Арман</t>
+  </si>
+  <si>
+    <t>st076957</t>
+  </si>
+  <si>
+    <t>Бернгардт</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>st079000</t>
+  </si>
+  <si>
+    <t>Борисенко</t>
+  </si>
+  <si>
+    <t>st075629</t>
+  </si>
+  <si>
+    <t>Бородин</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>st078576</t>
+  </si>
+  <si>
+    <t>Васильев</t>
+  </si>
+  <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>st078483</t>
+  </si>
+  <si>
+    <t>Волынкина</t>
+  </si>
+  <si>
+    <t>st076277</t>
+  </si>
+  <si>
+    <t>Гальянова</t>
+  </si>
+  <si>
+    <t>Майя</t>
+  </si>
+  <si>
+    <t>st076136</t>
+  </si>
+  <si>
+    <t>Голован</t>
+  </si>
+  <si>
+    <t>st076689</t>
+  </si>
+  <si>
+    <t>Голушко</t>
+  </si>
+  <si>
+    <t>st078415</t>
+  </si>
+  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Альдербаева</t>
-  </si>
-  <si>
-    <t>Анель</t>
-  </si>
-  <si>
-    <t>st081183</t>
-  </si>
-  <si>
-    <t>Аникина</t>
-  </si>
-  <si>
-    <t>Дарья</t>
-  </si>
-  <si>
-    <t>st083455</t>
-  </si>
-  <si>
-    <t>Ахромов</t>
-  </si>
-  <si>
-    <t>Константин</t>
-  </si>
-  <si>
-    <t>st078729</t>
-  </si>
-  <si>
-    <t>Бабаковская</t>
-  </si>
-  <si>
-    <t>Алёна</t>
-  </si>
-  <si>
-    <t>st078018</t>
-  </si>
-  <si>
-    <t>Бакулевский</t>
-  </si>
-  <si>
-    <t>Борис</t>
-  </si>
-  <si>
-    <t>st076290</t>
-  </si>
-  <si>
-    <t>Бариев</t>
-  </si>
-  <si>
-    <t>Тимур</t>
-  </si>
-  <si>
-    <t>st079168</t>
-  </si>
-  <si>
-    <t>Батаева</t>
-  </si>
-  <si>
-    <t>Татьяна</t>
-  </si>
-  <si>
-    <t>st076236</t>
-  </si>
-  <si>
-    <t>Батлуцкая</t>
-  </si>
-  <si>
-    <t>Микаэла</t>
-  </si>
-  <si>
-    <t>st092163</t>
-  </si>
-  <si>
-    <t>Белоконь</t>
-  </si>
-  <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>st078600</t>
-  </si>
-  <si>
-    <t>Бергалиев</t>
-  </si>
-  <si>
-    <t>Арман</t>
-  </si>
-  <si>
-    <t>st076957</t>
-  </si>
-  <si>
-    <t>Бернгардт</t>
-  </si>
-  <si>
-    <t>Валерия</t>
-  </si>
-  <si>
-    <t>st079000</t>
-  </si>
-  <si>
-    <t>Борисенко</t>
-  </si>
-  <si>
-    <t>st075629</t>
-  </si>
-  <si>
-    <t>Бородин</t>
-  </si>
-  <si>
-    <t>Никита</t>
-  </si>
-  <si>
-    <t>st078576</t>
-  </si>
-  <si>
-    <t>Васильев</t>
-  </si>
-  <si>
-    <t>Артём</t>
-  </si>
-  <si>
-    <t>st078483</t>
-  </si>
-  <si>
-    <t>Волынкина</t>
-  </si>
-  <si>
-    <t>st076277</t>
-  </si>
-  <si>
-    <t>Гальянова</t>
-  </si>
-  <si>
-    <t>Майя</t>
-  </si>
-  <si>
-    <t>st076136</t>
-  </si>
-  <si>
-    <t>Голован</t>
-  </si>
-  <si>
-    <t>st076689</t>
-  </si>
-  <si>
-    <t>Голушко</t>
-  </si>
-  <si>
-    <t>st078415</t>
   </si>
   <si>
     <t>Гринберг</t>
@@ -784,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -806,18 +806,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -858,13 +855,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1134,10 +1131,10 @@
       <c r="D2" s="7">
         <v>5.0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <v>1.15</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>1.1</v>
       </c>
     </row>
@@ -1154,10 +1151,10 @@
       <c r="D3" s="7">
         <v>4.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>1.25</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>1.45</v>
       </c>
     </row>
@@ -1174,10 +1171,10 @@
       <c r="D4" s="7">
         <v>2.0</v>
       </c>
-      <c r="E4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1194,370 +1191,370 @@
       <c r="D5" s="7">
         <v>3.0</v>
       </c>
-      <c r="E5" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
+      <c r="E5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="7">
         <v>4.0</v>
       </c>
-      <c r="E6" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="7">
         <v>5.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>1.3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="7">
         <v>6.0</v>
       </c>
-      <c r="E8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="4">
         <v>1.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="7">
         <v>4.0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>1.25</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>1.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="7">
         <v>6.0</v>
       </c>
-      <c r="E10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="4">
         <v>1.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="7">
         <v>2.0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <v>1.4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" s="7">
         <v>1.0</v>
       </c>
-      <c r="E12" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="7">
         <v>4.0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <v>1.2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <v>1.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D14" s="7">
         <v>1.0</v>
       </c>
-      <c r="E14" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D15" s="7">
         <v>3.0</v>
       </c>
-      <c r="E15" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>23</v>
+      <c r="E15" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D16" s="7">
         <v>5.0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="4">
         <v>1.3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D17" s="7">
         <v>5.0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="4">
         <v>1.15</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="7">
         <v>2.0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="4">
         <v>1.4</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="7">
         <v>2.0</v>
       </c>
-      <c r="E19" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="7">
         <v>6.0</v>
       </c>
-      <c r="E20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="7">
         <v>5.0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="4">
         <v>1.15</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>1.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
         <v>4.0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="4">
         <v>1.2</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D23" s="7">
         <v>3.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="8">
+        <v>73</v>
+      </c>
+      <c r="F23" s="4">
         <v>1.4</v>
       </c>
     </row>
@@ -1574,10 +1571,10 @@
       <c r="D24" s="7">
         <v>2.0</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>1.4</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1594,10 +1591,10 @@
       <c r="D25" s="7">
         <v>2.0</v>
       </c>
-      <c r="E25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1614,10 +1611,10 @@
       <c r="D26" s="7">
         <v>6.0</v>
       </c>
-      <c r="E26" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="E26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="4">
         <v>1.2</v>
       </c>
     </row>
@@ -1634,10 +1631,10 @@
       <c r="D27" s="7">
         <v>5.0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="4">
         <v>1.15</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -1646,7 +1643,7 @@
         <v>85</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>86</v>
@@ -1654,10 +1651,10 @@
       <c r="D28" s="7">
         <v>6.0</v>
       </c>
-      <c r="E28" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="4">
         <v>1.2</v>
       </c>
     </row>
@@ -1674,10 +1671,10 @@
       <c r="D29" s="7">
         <v>1.0</v>
       </c>
-      <c r="E29" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="E29" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1686,7 +1683,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>91</v>
@@ -1694,10 +1691,10 @@
       <c r="D30" s="7">
         <v>2.0</v>
       </c>
-      <c r="E30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="E30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1714,10 +1711,10 @@
       <c r="D31" s="7">
         <v>5.0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="4">
         <v>1.1</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>1.2</v>
       </c>
     </row>
@@ -1726,7 +1723,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>95</v>
@@ -1734,10 +1731,10 @@
       <c r="D32" s="7">
         <v>3.0</v>
       </c>
-      <c r="E32" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="E32" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="4">
         <v>1.4</v>
       </c>
     </row>
@@ -1754,10 +1751,10 @@
       <c r="D33" s="7">
         <v>3.0</v>
       </c>
-      <c r="E33" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="E33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="4">
         <v>1.3</v>
       </c>
     </row>
@@ -1774,10 +1771,10 @@
       <c r="D34" s="7">
         <v>6.0</v>
       </c>
-      <c r="E34" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F34" s="8">
+      <c r="E34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="4">
         <v>1.15</v>
       </c>
     </row>
@@ -1794,10 +1791,10 @@
       <c r="D35" s="7">
         <v>3.0</v>
       </c>
-      <c r="E35" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="8">
+      <c r="E35" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1806,7 +1803,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>106</v>
@@ -1814,11 +1811,11 @@
       <c r="D36" s="7">
         <v>3.0</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="4">
         <v>1.3</v>
       </c>
-      <c r="F36" s="8">
-        <v>1.5</v>
+      <c r="F36" s="9">
+        <v>1.3</v>
       </c>
     </row>
     <row r="37">
@@ -1834,10 +1831,10 @@
       <c r="D37" s="7">
         <v>1.0</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="4">
         <v>0.0</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1854,10 +1851,10 @@
       <c r="D38" s="7">
         <v>5.0</v>
       </c>
-      <c r="E38" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F38" s="9">
+      <c r="E38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -1874,11 +1871,11 @@
       <c r="D39" s="7">
         <v>3.0</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="4">
         <v>1.3</v>
       </c>
-      <c r="F39" s="8">
-        <v>1.5</v>
+      <c r="F39" s="9">
+        <v>1.3</v>
       </c>
     </row>
     <row r="40">
@@ -1894,10 +1891,10 @@
       <c r="D40" s="7">
         <v>6.0</v>
       </c>
-      <c r="E40" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="E40" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="4">
         <v>1.15</v>
       </c>
     </row>
@@ -1914,10 +1911,10 @@
       <c r="D41" s="7">
         <v>5.0</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="4">
         <v>1.25</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -1934,10 +1931,10 @@
       <c r="D42" s="7">
         <v>4.0</v>
       </c>
-      <c r="E42" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F42" s="8">
+      <c r="E42" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1954,10 +1951,10 @@
       <c r="D43" s="7">
         <v>1.0</v>
       </c>
-      <c r="E43" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F43" s="8">
+      <c r="E43" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F43" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1974,10 +1971,10 @@
       <c r="D44" s="7">
         <v>5.0</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="4">
         <v>1.2</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -1994,10 +1991,10 @@
       <c r="D45" s="7">
         <v>5.0</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="4">
         <v>1.15</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>1.3</v>
       </c>
     </row>
@@ -2006,7 +2003,7 @@
         <v>132</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>133</v>
@@ -2014,11 +2011,11 @@
       <c r="D46" s="7">
         <v>3.0</v>
       </c>
-      <c r="E46" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1.5</v>
+      <c r="E46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -2034,11 +2031,11 @@
       <c r="D47" s="7">
         <v>3.0</v>
       </c>
-      <c r="E47" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1.5</v>
+      <c r="E47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -2046,7 +2043,7 @@
         <v>137</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>138</v>
@@ -2054,10 +2051,10 @@
       <c r="D48" s="7">
         <v>5.0</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="4">
         <v>0.0</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>1.2</v>
       </c>
     </row>
@@ -2074,10 +2071,10 @@
       <c r="D49" s="7">
         <v>6.0</v>
       </c>
-      <c r="E49" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F49" s="8">
+      <c r="E49" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="4">
         <v>1.1</v>
       </c>
     </row>
@@ -2094,10 +2091,10 @@
       <c r="D50" s="7">
         <v>4.0</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="4">
         <v>1.25</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2114,10 +2111,10 @@
       <c r="D51" s="7">
         <v>1.0</v>
       </c>
-      <c r="E51" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="E51" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2134,10 +2131,10 @@
       <c r="D52" s="7">
         <v>4.0</v>
       </c>
-      <c r="E52" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F52" s="8">
+      <c r="E52" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2154,10 +2151,10 @@
       <c r="D53" s="7">
         <v>4.0</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="4">
         <v>1.1</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2174,10 +2171,10 @@
       <c r="D54" s="7">
         <v>2.0</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="4">
         <v>1.4</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2194,10 +2191,10 @@
       <c r="D55" s="7">
         <v>5.0</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="4">
         <v>1.2</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -2214,11 +2211,11 @@
       <c r="D56" s="7">
         <v>3.0</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="4">
         <v>1.3</v>
       </c>
-      <c r="F56" s="8">
-        <v>1.5</v>
+      <c r="F56" s="9">
+        <v>1.1</v>
       </c>
     </row>
     <row r="57">
@@ -2234,10 +2231,10 @@
       <c r="D57" s="7">
         <v>2.0</v>
       </c>
-      <c r="E57" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F57" s="8">
+      <c r="E57" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F57" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2254,10 +2251,10 @@
       <c r="D58" s="7">
         <v>1.0</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="4">
         <v>1.25</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2274,10 +2271,10 @@
       <c r="D59" s="7">
         <v>6.0</v>
       </c>
-      <c r="E59" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F59" s="8">
+      <c r="E59" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F59" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2286,7 +2283,7 @@
         <v>167</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>168</v>
@@ -2295,10 +2292,10 @@
         <v>3.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="8">
-        <v>1.3</v>
+        <v>73</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1.1</v>
       </c>
     </row>
     <row r="61">
@@ -2314,10 +2311,10 @@
       <c r="D61" s="7">
         <v>1.0</v>
       </c>
-      <c r="E61" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F61" s="8">
+      <c r="E61" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F61" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2326,7 +2323,7 @@
         <v>171</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>172</v>
@@ -2334,10 +2331,10 @@
       <c r="D62" s="7">
         <v>1.0</v>
       </c>
-      <c r="E62" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F62" s="8">
+      <c r="E62" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F62" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2354,10 +2351,10 @@
       <c r="D63" s="7">
         <v>3.0</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="4">
         <v>0.8</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -2374,10 +2371,10 @@
       <c r="D64" s="7">
         <v>6.0</v>
       </c>
-      <c r="E64" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F64" s="8">
+      <c r="E64" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F64" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2394,10 +2391,10 @@
       <c r="D65" s="7">
         <v>1.0</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="4">
         <v>1.25</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2414,10 +2411,10 @@
       <c r="D66" s="7">
         <v>2.0</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="4">
         <v>1.1</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2434,10 +2431,10 @@
       <c r="D67" s="7">
         <v>2.0</v>
       </c>
-      <c r="E67" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F67" s="8">
+      <c r="E67" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F67" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2446,7 +2443,7 @@
         <v>186</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>187</v>
@@ -2454,10 +2451,10 @@
       <c r="D68" s="7">
         <v>6.0</v>
       </c>
-      <c r="E68" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F68" s="8">
+      <c r="E68" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F68" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2474,10 +2471,10 @@
       <c r="D69" s="7">
         <v>1.0</v>
       </c>
-      <c r="E69" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F69" s="8">
+      <c r="E69" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F69" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2494,10 +2491,10 @@
       <c r="D70" s="7">
         <v>1.0</v>
       </c>
-      <c r="E70" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F70" s="8">
+      <c r="E70" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F70" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2506,7 +2503,7 @@
         <v>193</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>194</v>
@@ -2514,10 +2511,10 @@
       <c r="D71" s="7">
         <v>6.0</v>
       </c>
-      <c r="E71" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F71" s="8">
+      <c r="E71" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F71" s="4">
         <v>1.3</v>
       </c>
     </row>
@@ -2526,7 +2523,7 @@
         <v>195</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>196</v>
@@ -2534,10 +2531,10 @@
       <c r="D72" s="7">
         <v>1.0</v>
       </c>
-      <c r="E72" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F72" s="8">
+      <c r="E72" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F72" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2554,10 +2551,10 @@
       <c r="D73" s="7">
         <v>5.0</v>
       </c>
-      <c r="E73" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F73" s="9">
+      <c r="E73" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F73" s="8">
         <v>1.1</v>
       </c>
     </row>
@@ -2574,10 +2571,10 @@
       <c r="D74" s="7">
         <v>4.0</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="4">
         <v>1.1</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="4">
         <v>1.45</v>
       </c>
     </row>
@@ -2594,10 +2591,10 @@
       <c r="D75" s="7">
         <v>1.0</v>
       </c>
-      <c r="E75" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F75" s="8">
+      <c r="E75" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F75" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2606,7 +2603,7 @@
         <v>205</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>206</v>
@@ -2614,10 +2611,10 @@
       <c r="D76" s="7">
         <v>4.0</v>
       </c>
-      <c r="E76" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F76" s="8">
+      <c r="E76" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F76" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2634,10 +2631,10 @@
       <c r="D77" s="7">
         <v>2.0</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="4">
         <v>0.0</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -2654,10 +2651,10 @@
       <c r="D78" s="7">
         <v>4.0</v>
       </c>
-      <c r="E78" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F78" s="8">
+      <c r="E78" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F78" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2674,10 +2671,10 @@
       <c r="D79" s="7">
         <v>5.0</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="4">
         <v>1.2</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="8">
         <v>1.2</v>
       </c>
     </row>
@@ -2694,10 +2691,10 @@
       <c r="D80" s="7">
         <v>1.0</v>
       </c>
-      <c r="E80" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F80" s="8">
+      <c r="E80" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2714,10 +2711,10 @@
       <c r="D81" s="7">
         <v>5.0</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="4">
         <v>1.05</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -2726,7 +2723,7 @@
         <v>218</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>219</v>
@@ -2734,10 +2731,10 @@
       <c r="D82" s="7">
         <v>6.0</v>
       </c>
-      <c r="E82" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F82" s="8">
+      <c r="E82" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F82" s="4">
         <v>1.35</v>
       </c>
     </row>
@@ -2754,10 +2751,10 @@
       <c r="D83" s="7">
         <v>4.0</v>
       </c>
-      <c r="E83" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F83" s="8">
+      <c r="E83" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F83" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2774,10 +2771,10 @@
       <c r="D84" s="7">
         <v>6.0</v>
       </c>
-      <c r="E84" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F84" s="8">
+      <c r="E84" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F84" s="4">
         <v>1.15</v>
       </c>
     </row>
@@ -2794,10 +2791,10 @@
       <c r="D85" s="7">
         <v>2.0</v>
       </c>
-      <c r="E85" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F85" s="8">
+      <c r="E85" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F85" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2806,7 +2803,7 @@
         <v>229</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>230</v>
@@ -2814,10 +2811,10 @@
       <c r="D86" s="7">
         <v>2.0</v>
       </c>
-      <c r="E86" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F86" s="8">
+      <c r="E86" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F86" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2834,10 +2831,10 @@
       <c r="D87" s="7">
         <v>6.0</v>
       </c>
-      <c r="E87" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F87" s="8">
+      <c r="E87" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F87" s="4">
         <v>1.3</v>
       </c>
     </row>
@@ -2846,7 +2843,7 @@
         <v>234</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>235</v>
@@ -2854,10 +2851,10 @@
       <c r="D88" s="7">
         <v>2.0</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="4">
         <v>1.4</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2874,10 +2871,10 @@
       <c r="D89" s="7">
         <v>1.0</v>
       </c>
-      <c r="E89" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F89" s="8">
+      <c r="E89" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2894,10 +2891,10 @@
       <c r="D90" s="7">
         <v>4.0</v>
       </c>
-      <c r="E90" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F90" s="8">
+      <c r="E90" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F90" s="4">
         <v>1.45</v>
       </c>
     </row>
@@ -2914,10 +2911,10 @@
       <c r="D91" s="7">
         <v>4.0</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>0.0</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2926,7 +2923,7 @@
         <v>245</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>246</v>
@@ -2934,11 +2931,11 @@
       <c r="D92" s="7">
         <v>3.0</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="4">
         <v>1.3</v>
       </c>
-      <c r="F92" s="8">
-        <v>1.5</v>
+      <c r="F92" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
@@ -2954,11 +2951,11 @@
       <c r="D93" s="7">
         <v>3.0</v>
       </c>
-      <c r="E93" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F93" s="8">
-        <v>1.5</v>
+      <c r="E93" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
@@ -2966,7 +2963,7 @@
         <v>249</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>250</v>
@@ -2974,10 +2971,10 @@
       <c r="D94" s="7">
         <v>4.0</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="4">
         <v>1.1</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -2994,10 +2991,10 @@
       <c r="D95" s="7">
         <v>3.0</v>
       </c>
-      <c r="E95" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F95" s="8">
+      <c r="E95" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F95" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -3006,7 +3003,7 @@
         <v>253</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>254</v>
@@ -3014,10 +3011,10 @@
       <c r="D96" s="7">
         <v>6.0</v>
       </c>
-      <c r="E96" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F96" s="8">
+      <c r="E96" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F96" s="4">
         <v>1.3</v>
       </c>
     </row>

--- a/data/Семинары по общей экологии.xlsx
+++ b/data/Семинары по общей экологии.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$96</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -783,101 +787,736 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="27">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
-    <font/>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
+    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1067,23 +1706,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.29"/>
+    <col min="1" max="1" width="21.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.4" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,38 +1761,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="14.4" spans="1:7">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7">
-        <v>5.0</v>
+      <c r="D2" s="6">
+        <v>5</v>
       </c>
       <c r="E2" s="4">
         <v>1.15</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="14.4" spans="1:7">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7">
-        <v>4.0</v>
+      <c r="D3" s="6">
+        <v>4</v>
       </c>
       <c r="E3" s="4">
         <v>1.25</v>
@@ -1157,59 +1801,62 @@
       <c r="F3" s="4">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="14.4" spans="1:7">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
-        <v>2.0</v>
+      <c r="D4" s="6">
+        <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="14.4" spans="1:7">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
-        <v>3.0</v>
+      <c r="D5" s="6">
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>1.5</v>
       </c>
-      <c r="F5" s="9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="14.4" spans="1:7">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7">
-        <v>4.0</v>
+      <c r="D6" s="6">
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>1.5</v>
@@ -1217,19 +1864,20 @@
       <c r="F6" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="14.4" spans="1:7">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
-        <v>5.0</v>
+      <c r="D7" s="6">
+        <v>5</v>
       </c>
       <c r="E7" s="4">
         <v>1.3</v>
@@ -1237,39 +1885,41 @@
       <c r="F7" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="14.4" spans="1:7">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7">
-        <v>6.0</v>
+      <c r="D8" s="6">
+        <v>6</v>
       </c>
       <c r="E8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="14.4" spans="1:7">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7">
-        <v>4.0</v>
+      <c r="D9" s="6">
+        <v>4</v>
       </c>
       <c r="E9" s="4">
         <v>1.25</v>
@@ -1277,39 +1927,41 @@
       <c r="F9" s="4">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="14.4" spans="1:7">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7">
-        <v>6.0</v>
+      <c r="D10" s="6">
+        <v>6</v>
       </c>
       <c r="E10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="14.4" spans="1:7">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="7">
-        <v>2.0</v>
+      <c r="D11" s="6">
+        <v>2</v>
       </c>
       <c r="E11" s="4">
         <v>1.4</v>
@@ -1317,39 +1969,41 @@
       <c r="F11" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="14.4" spans="1:7">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>1.5</v>
       </c>
       <c r="F12" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:7">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7">
-        <v>4.0</v>
+      <c r="D13" s="6">
+        <v>4</v>
       </c>
       <c r="E13" s="4">
         <v>1.2</v>
@@ -1357,119 +2011,125 @@
       <c r="F13" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:7">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
         <v>1.5</v>
       </c>
       <c r="F14" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" ht="14.4" spans="1:7">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="7">
-        <v>3.0</v>
+      <c r="D15" s="6">
+        <v>3</v>
       </c>
       <c r="E15" s="4">
         <v>1.5</v>
       </c>
-      <c r="F15" s="9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="F15" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:7">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="7">
-        <v>5.0</v>
+      <c r="D16" s="6">
+        <v>5</v>
       </c>
       <c r="E16" s="4">
         <v>1.3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:7">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="7">
-        <v>5.0</v>
+      <c r="D17" s="6">
+        <v>5</v>
       </c>
       <c r="E17" s="4">
         <v>1.15</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="14.4" spans="1:7">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="7">
-        <v>2.0</v>
+      <c r="D18" s="6">
+        <v>2</v>
       </c>
       <c r="E18" s="4">
         <v>1.4</v>
       </c>
       <c r="F18" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="14.4" spans="1:7">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="7">
-        <v>2.0</v>
+      <c r="D19" s="6">
+        <v>2</v>
       </c>
       <c r="E19" s="4">
         <v>1.5</v>
@@ -1477,59 +2137,62 @@
       <c r="F19" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="14.4" spans="1:7">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="7">
-        <v>6.0</v>
+      <c r="D20" s="6">
+        <v>6</v>
       </c>
       <c r="E20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="14.4" spans="1:7">
+      <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="7">
-        <v>5.0</v>
+      <c r="D21" s="6">
+        <v>5</v>
       </c>
       <c r="E21" s="4">
         <v>1.15</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="14.4" spans="1:7">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="7">
-        <v>4.0</v>
+      <c r="D22" s="6">
+        <v>4</v>
       </c>
       <c r="E22" s="4">
         <v>1.2</v>
@@ -1537,199 +2200,209 @@
       <c r="F22" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="14.4" spans="1:7">
+      <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="14.4" spans="1:7">
+      <c r="A24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="7">
-        <v>2.0</v>
+      <c r="D24" s="6">
+        <v>2</v>
       </c>
       <c r="E24" s="4">
         <v>1.4</v>
       </c>
       <c r="F24" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" ht="14.4" spans="1:7">
+      <c r="A25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="7">
-        <v>2.0</v>
+      <c r="D25" s="6">
+        <v>2</v>
       </c>
       <c r="E25" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" ht="14.4" spans="1:7">
+      <c r="A26" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="6">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7">
         <v>1.5</v>
       </c>
       <c r="F26" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" ht="14.4" spans="1:7">
+      <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="7">
-        <v>5.0</v>
+      <c r="D27" s="6">
+        <v>5</v>
       </c>
       <c r="E27" s="4">
         <v>1.15</v>
       </c>
-      <c r="F27" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="F27" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" ht="14.4" spans="1:7">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="7">
-        <v>6.0</v>
+      <c r="D28" s="6">
+        <v>6</v>
       </c>
       <c r="E28" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" ht="14.4" spans="1:7">
+      <c r="A29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
         <v>1.5</v>
       </c>
       <c r="F29" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="14.4" spans="1:7">
+      <c r="A30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="7">
-        <v>2.0</v>
+      <c r="D30" s="6">
+        <v>2</v>
       </c>
       <c r="E30" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="14.4" spans="1:7">
+      <c r="A31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="7">
-        <v>5.0</v>
+      <c r="D31" s="6">
+        <v>5</v>
       </c>
       <c r="E31" s="4">
         <v>1.1</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" ht="14.4" spans="1:7">
+      <c r="A32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="7">
-        <v>3.0</v>
+      <c r="D32" s="6">
+        <v>3</v>
       </c>
       <c r="E32" s="4">
         <v>1.5</v>
@@ -1737,19 +2410,20 @@
       <c r="F32" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" ht="14.4" spans="1:7">
+      <c r="A33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="7">
-        <v>3.0</v>
+      <c r="D33" s="6">
+        <v>3</v>
       </c>
       <c r="E33" s="4">
         <v>1.5</v>
@@ -1757,39 +2431,41 @@
       <c r="F33" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" ht="14.4" spans="1:7">
+      <c r="A34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="7">
-        <v>6.0</v>
+      <c r="D34" s="6">
+        <v>6</v>
       </c>
       <c r="E34" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
         <v>1.15</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" ht="14.4" spans="1:7">
+      <c r="A35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="7">
-        <v>3.0</v>
+      <c r="D35" s="6">
+        <v>3</v>
       </c>
       <c r="E35" s="4">
         <v>1.5</v>
@@ -1797,139 +2473,146 @@
       <c r="F35" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" ht="14.4" spans="1:7">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="7">
-        <v>3.0</v>
+      <c r="D36" s="6">
+        <v>3</v>
       </c>
       <c r="E36" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="7">
         <v>1.3</v>
       </c>
-      <c r="F36" s="9">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" ht="14.4" spans="1:7">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" ht="14.4" spans="1:7">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" ht="14.4" spans="1:7">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F39" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" ht="14.4" spans="1:7">
+      <c r="A40" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D40" s="6">
+        <v>6</v>
+      </c>
+      <c r="E40" s="7">
         <v>1.5</v>
       </c>
       <c r="F40" s="4">
         <v>1.15</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" ht="14.4" spans="1:7">
+      <c r="A41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="7">
-        <v>5.0</v>
+      <c r="D41" s="6">
+        <v>5</v>
       </c>
       <c r="E41" s="4">
         <v>1.25</v>
       </c>
-      <c r="F41" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" ht="14.4" spans="1:7">
+      <c r="A42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="7">
-        <v>4.0</v>
+      <c r="D42" s="6">
+        <v>4</v>
       </c>
       <c r="E42" s="4">
         <v>1.5</v>
@@ -1937,159 +2620,167 @@
       <c r="F42" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" ht="14.4" spans="1:7">
+      <c r="A43" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
         <v>1.5</v>
       </c>
       <c r="F43" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" ht="14.4" spans="1:7">
+      <c r="A44" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="7">
-        <v>5.0</v>
+      <c r="D44" s="6">
+        <v>5</v>
       </c>
       <c r="E44" s="4">
         <v>1.2</v>
       </c>
-      <c r="F44" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="F44" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" ht="14.4" spans="1:7">
+      <c r="A45" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="7">
-        <v>5.0</v>
+      <c r="D45" s="6">
+        <v>5</v>
       </c>
       <c r="E45" s="4">
         <v>1.15</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" ht="14.4" spans="1:7">
+      <c r="A46" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="7">
-        <v>3.0</v>
+      <c r="D46" s="6">
+        <v>3</v>
       </c>
       <c r="E46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" ht="14.4" spans="1:7">
+      <c r="A47" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="7">
-        <v>3.0</v>
+      <c r="D47" s="6">
+        <v>3</v>
       </c>
       <c r="E47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" ht="14.4" spans="1:7">
+      <c r="A48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="7">
-        <v>5.0</v>
+      <c r="D48" s="6">
+        <v>5</v>
       </c>
       <c r="E48" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" ht="14.4" spans="1:7">
+      <c r="A49" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="6">
+        <v>6</v>
+      </c>
+      <c r="E49" s="7">
         <v>1.5</v>
       </c>
       <c r="F49" s="4">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" ht="14.4" spans="1:7">
+      <c r="A50" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="7">
-        <v>4.0</v>
+      <c r="D50" s="6">
+        <v>4</v>
       </c>
       <c r="E50" s="4">
         <v>1.25</v>
@@ -2097,39 +2788,41 @@
       <c r="F50" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" ht="14.4" spans="1:7">
+      <c r="A51" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D51" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7">
         <v>1.5</v>
       </c>
       <c r="F51" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" ht="14.4" spans="1:7">
+      <c r="A52" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="7">
-        <v>4.0</v>
+      <c r="D52" s="6">
+        <v>4</v>
       </c>
       <c r="E52" s="4">
         <v>1.5</v>
@@ -2137,19 +2830,20 @@
       <c r="F52" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" ht="14.4" spans="1:7">
+      <c r="A53" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="7">
-        <v>4.0</v>
+      <c r="D53" s="6">
+        <v>4</v>
       </c>
       <c r="E53" s="4">
         <v>1.1</v>
@@ -2157,19 +2851,20 @@
       <c r="F53" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" ht="14.4" spans="1:7">
+      <c r="A54" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="7">
-        <v>2.0</v>
+      <c r="D54" s="6">
+        <v>2</v>
       </c>
       <c r="E54" s="4">
         <v>1.4</v>
@@ -2177,239 +2872,251 @@
       <c r="F54" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" ht="14.4" spans="1:7">
+      <c r="A55" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="7">
-        <v>5.0</v>
+      <c r="D55" s="6">
+        <v>5</v>
       </c>
       <c r="E55" s="4">
         <v>1.2</v>
       </c>
-      <c r="F55" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="F55" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" ht="14.4" spans="1:7">
+      <c r="A56" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="7">
-        <v>3.0</v>
+      <c r="D56" s="6">
+        <v>3</v>
       </c>
       <c r="E56" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F56" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="7">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" ht="14.4" spans="1:7">
+      <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="7">
-        <v>2.0</v>
+      <c r="D57" s="6">
+        <v>2</v>
       </c>
       <c r="E57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" ht="14.4" spans="1:7">
+      <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7">
         <v>1.25</v>
       </c>
       <c r="F58" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" ht="14.4" spans="1:7">
+      <c r="A59" t="s">
         <v>165</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="7">
-        <v>6.0</v>
+      <c r="D59" s="6">
+        <v>6</v>
       </c>
       <c r="E59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" ht="14.4" spans="1:7">
+      <c r="A60" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="D60" s="6">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="7">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" ht="14.4" spans="1:7">
+      <c r="A61" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
         <v>1.5</v>
       </c>
       <c r="F61" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" ht="14.4" spans="1:7">
+      <c r="A62" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
         <v>1.5</v>
       </c>
       <c r="F62" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" ht="14.4" spans="1:7">
+      <c r="A63" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="6">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7">
         <v>0.8</v>
       </c>
       <c r="F63" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" ht="14.4" spans="1:7">
+      <c r="A64" t="s">
         <v>176</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="7">
-        <v>6.0</v>
+      <c r="D64" s="6">
+        <v>6</v>
       </c>
       <c r="E64" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" ht="14.4" spans="1:7">
+      <c r="A65" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
         <v>1.25</v>
       </c>
       <c r="F65" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" ht="14.4" spans="1:7">
+      <c r="A66" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="7">
-        <v>2.0</v>
+      <c r="D66" s="6">
+        <v>2</v>
       </c>
       <c r="E66" s="4">
         <v>1.1</v>
@@ -2417,159 +3124,167 @@
       <c r="F66" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" ht="14.4" spans="1:7">
+      <c r="A67" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="7">
-        <v>2.0</v>
+      <c r="D67" s="6">
+        <v>2</v>
       </c>
       <c r="E67" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" ht="14.4" spans="1:7">
+      <c r="A68" t="s">
         <v>186</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="7">
-        <v>6.0</v>
+      <c r="D68" s="6">
+        <v>6</v>
       </c>
       <c r="E68" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" ht="14.4" spans="1:7">
+      <c r="A69" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7">
         <v>1.5</v>
       </c>
       <c r="F69" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" ht="14.4" spans="1:7">
+      <c r="A70" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7">
         <v>1.5</v>
       </c>
       <c r="F70" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" ht="14.4" spans="1:7">
+      <c r="A71" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="7">
-        <v>6.0</v>
+      <c r="D71" s="6">
+        <v>6</v>
       </c>
       <c r="E71" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" ht="14.4" spans="1:7">
+      <c r="A72" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D72" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
         <v>1.5</v>
       </c>
       <c r="F72" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" ht="14.4" spans="1:7">
+      <c r="A73" t="s">
         <v>197</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D73" s="7">
-        <v>5.0</v>
+      <c r="D73" s="6">
+        <v>5</v>
       </c>
       <c r="E73" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F73" s="8">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" ht="14.4" spans="1:7">
+      <c r="A74" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="7">
-        <v>4.0</v>
+      <c r="D74" s="6">
+        <v>4</v>
       </c>
       <c r="E74" s="4">
         <v>1.1</v>
@@ -2577,179 +3292,188 @@
       <c r="F74" s="4">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" ht="14.4" spans="1:7">
+      <c r="A75" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>203</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D75" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7">
         <v>1.5</v>
       </c>
       <c r="F75" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" ht="14.4" spans="1:7">
+      <c r="A76" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E76" s="8">
-        <v>1.0</v>
+      <c r="D76" s="6">
+        <v>4</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
       </c>
       <c r="F76" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" ht="14.4" spans="1:7">
+      <c r="A77" t="s">
         <v>207</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="7">
-        <v>2.0</v>
+      <c r="D77" s="6">
+        <v>2</v>
       </c>
       <c r="E77" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" ht="14.4" spans="1:7">
+      <c r="A78" t="s">
         <v>209</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D78" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E78" s="8">
-        <v>1.0</v>
+      <c r="D78" s="6">
+        <v>4</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
       </c>
       <c r="F78" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" ht="14.4" spans="1:7">
+      <c r="A79" t="s">
         <v>211</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="7">
-        <v>5.0</v>
+      <c r="D79" s="6">
+        <v>5</v>
       </c>
       <c r="E79" s="4">
         <v>1.2</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" ht="14.4" spans="1:7">
+      <c r="A80" t="s">
         <v>213</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E80" s="4">
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
         <v>1.5</v>
       </c>
       <c r="F80" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" ht="14.4" spans="1:7">
+      <c r="A81" t="s">
         <v>215</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D81" s="7">
-        <v>5.0</v>
+      <c r="D81" s="6">
+        <v>5</v>
       </c>
       <c r="E81" s="4">
         <v>1.05</v>
       </c>
-      <c r="F81" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" ht="14.4" spans="1:7">
+      <c r="A82" t="s">
         <v>218</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D82" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="D82" s="6">
+        <v>6</v>
+      </c>
+      <c r="E82" s="7">
         <v>1.5</v>
       </c>
       <c r="F82" s="4">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="s">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" ht="14.4" spans="1:7">
+      <c r="A83" t="s">
         <v>220</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>221</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D83" s="7">
-        <v>4.0</v>
+      <c r="D83" s="6">
+        <v>4</v>
       </c>
       <c r="E83" s="4">
         <v>1.5</v>
@@ -2757,99 +3481,104 @@
       <c r="F83" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="s">
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" ht="14.4" spans="1:7">
+      <c r="A84" t="s">
         <v>223</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>224</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D84" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="D84" s="6">
+        <v>6</v>
+      </c>
+      <c r="E84" s="7">
         <v>1.5</v>
       </c>
       <c r="F84" s="4">
         <v>1.15</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="s">
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" ht="14.4" spans="1:7">
+      <c r="A85" t="s">
         <v>226</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D85" s="7">
-        <v>2.0</v>
+      <c r="D85" s="6">
+        <v>2</v>
       </c>
       <c r="E85" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" ht="14.4" spans="1:7">
+      <c r="A86" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D86" s="7">
-        <v>2.0</v>
+      <c r="D86" s="6">
+        <v>2</v>
       </c>
       <c r="E86" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="s">
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" ht="14.4" spans="1:7">
+      <c r="A87" t="s">
         <v>231</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D87" s="7">
-        <v>6.0</v>
+      <c r="D87" s="6">
+        <v>6</v>
       </c>
       <c r="E87" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="s">
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" ht="14.4" spans="1:7">
+      <c r="A88" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D88" s="7">
-        <v>2.0</v>
+      <c r="D88" s="6">
+        <v>2</v>
       </c>
       <c r="E88" s="4">
         <v>1.4</v>
@@ -2857,119 +3586,125 @@
       <c r="F88" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" ht="14.4" spans="1:7">
+      <c r="A89" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" t="s">
         <v>237</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D89" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E89" s="4">
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
         <v>1.5</v>
       </c>
       <c r="F89" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" ht="14.4" spans="1:7">
+      <c r="A90" t="s">
         <v>239</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D90" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E90" s="8">
-        <v>1.0</v>
+      <c r="D90" s="6">
+        <v>4</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
       </c>
       <c r="F90" s="4">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="s">
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" ht="14.4" spans="1:7">
+      <c r="A91" t="s">
         <v>242</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D91" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E91" s="8">
-        <v>0.0</v>
+      <c r="D91" s="6">
+        <v>4</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
       </c>
       <c r="F91" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" ht="14.4" spans="1:7">
+      <c r="A92" t="s">
         <v>245</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="7">
-        <v>3.0</v>
+      <c r="D92" s="6">
+        <v>3</v>
       </c>
       <c r="E92" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F92" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="F92" s="7">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" ht="14.4" spans="1:7">
+      <c r="A93" t="s">
         <v>247</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="7">
-        <v>3.0</v>
+      <c r="D93" s="6">
+        <v>3</v>
       </c>
       <c r="E93" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F93" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="F93" s="7">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" ht="14.4" spans="1:7">
+      <c r="A94" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D94" s="7">
-        <v>4.0</v>
+      <c r="D94" s="6">
+        <v>4</v>
       </c>
       <c r="E94" s="4">
         <v>1.1</v>
@@ -2977,19 +3712,20 @@
       <c r="F94" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="s">
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" ht="14.4" spans="1:7">
+      <c r="A95" t="s">
         <v>251</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D95" s="7">
-        <v>3.0</v>
+      <c r="D95" s="6">
+        <v>3</v>
       </c>
       <c r="E95" s="4">
         <v>1.5</v>
@@ -2997,29 +3733,34 @@
       <c r="F95" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="s">
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" ht="14.4" spans="1:7">
+      <c r="A96" t="s">
         <v>253</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D96" s="7">
-        <v>6.0</v>
+      <c r="D96" s="6">
+        <v>6</v>
       </c>
       <c r="E96" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="4">
         <v>1.3</v>
       </c>
+      <c r="G96" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$96"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:D96">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>